--- a/Data/ACCT/DATA/extracts/site_advert_missing.xlsx
+++ b/Data/ACCT/DATA/extracts/site_advert_missing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msrana\projects\github\OpenAnalytics\Data\ACCT\DATA\extracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C58DE-DBE9-4907-BC6E-E633726C0F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FE73DD-90E8-417D-9F80-E4C33B43FB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{56C93FCB-95DC-4881-8ACA-C06A988A5474}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56C93FCB-95DC-4881-8ACA-C06A988A5474}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
